--- a/data/trans_dic/P24_6_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P24_6_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia</t>
+          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -685,72 +734,102 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>17,96%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>19,67%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>21,96%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>29,32%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>29,33%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>31,95%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>33,96%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>35,91%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>36,89%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>37,15%</t>
+          <t>36,13%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
+          <t>37,28%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>37,67%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>39,35%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>46,81%</t>
         </is>
       </c>
-      <c r="M4" s="2" t="inlineStr">
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>49,16%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>26,15%</t>
         </is>
       </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>27,33%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>28,92%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>29,95%</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>27,45%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>28,94%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>30,26%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>31,51%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
         <is>
           <t>38,23%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>40,72%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,05; 20,88</t>
+          <t>14,96; 20,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,02; 21,82</t>
+          <t>14,9; 21,26</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,85; 23,67</t>
+          <t>16,67; 22,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>18,85; 25,31</t>
+          <t>18,79; 25,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,8; 32,91</t>
+          <t>19,24; 27,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>30,78; 37,52</t>
+          <t>25,92; 32,88</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,35; 39,85</t>
+          <t>28,39; 35,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>33,24; 40,26</t>
+          <t>30,8; 37,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>33,47; 40,66</t>
+          <t>32,45; 39,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>43,04; 50,49</t>
+          <t>33,92; 40,8</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>24,0; 28,63</t>
+          <t>34,14; 40,98</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>24,64; 29,84</t>
+          <t>35,14; 43,5</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>26,33; 31,39</t>
+          <t>43,3; 50,37</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>27,38; 32,33</t>
+          <t>45,8; 52,54</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>35,66; 40,99</t>
+          <t>23,73; 28,36</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>25,01; 30,43</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>26,65; 31,24</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>27,93; 32,69</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>28,71; 34,49</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>35,43; 40,74</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>38,13; 43,45</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>16,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>22,89%</t>
+          <t>22,69%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>25,51%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,2%</t>
+          <t>28,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>31,66%</t>
+          <t>33,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,9%</t>
+          <t>33,31%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>33,88%</t>
+          <t>31,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>39,8%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>47,15%</t>
+          <t>34,03%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>40,23%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,71%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>28,37%</t>
+          <t>47,14%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>32,66%</t>
+          <t>46,43%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>24,23%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>24,42%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>28,34%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>33,03%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>37,13%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>39,82%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>39,57%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,75; 20,83</t>
+          <t>13,63; 20,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,52; 22,47</t>
+          <t>14,05; 23,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,48; 28,17</t>
+          <t>19,09; 27,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>21,6; 30,48</t>
+          <t>21,53; 30,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,82; 39,4</t>
+          <t>23,8; 33,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,61; 35,83</t>
+          <t>26,55; 39,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>25,79; 34,25</t>
+          <t>27,4; 40,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,93; 37,8</t>
+          <t>27,44; 35,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>35,99; 43,88</t>
+          <t>27,17; 35,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>40,27; 54,23</t>
+          <t>30,28; 37,81</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>21,84; 26,99</t>
+          <t>36,16; 44,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>20,58; 26,97</t>
+          <t>41,16; 50,94</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>25,96; 31,75</t>
+          <t>40,78; 54,51</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>29,58; 35,52</t>
+          <t>39,62; 52,56</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>34,4; 44,5</t>
+          <t>21,71; 27,13</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>21,78; 28,03</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>25,41; 31,17</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>29,82; 35,95</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>33,92; 40,97</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>34,73; 44,48</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>35,06; 44,69</t>
         </is>
       </c>
     </row>
@@ -1025,70 +1194,100 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,75%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>33,81%</t>
+          <t>34,67%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>41,25%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
         <is>
           <t>31,7%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>34,4%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>38,73%</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>36,18%</t>
+          <t>33,49%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
+          <t>39,58%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>36,7%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>31,86%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M8" s="2" t="inlineStr">
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
         <is>
           <t>25,22%</t>
         </is>
       </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>24,48%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>27,64%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>34,98%</t>
-        </is>
-      </c>
-      <c r="Q8" s="2" t="inlineStr">
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>24,01%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>28,5%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>35,67%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>36,58%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1103,75 +1302,105 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,46; 26,05</t>
+          <t>12,62; 26,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,95; 23,38</t>
+          <t>8,65; 22,05</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,19; 23,23</t>
+          <t>12,31; 25,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,98; 44,86</t>
+          <t>26,24; 46,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>30,19; 55,19</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>24,75; 38,68</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,39; 43,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>31,4; 46,85</t>
+          <t>25,15; 38,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>29,16; 43,93</t>
+          <t>25,53; 42,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
+          <t>32,22; 46,8</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>29,02; 44,24</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>23,15; 41,17</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>20,55; 30,14</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>18,9; 30,76</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>22,88; 32,78</t>
-        </is>
-      </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>29,61; 41,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>20,23; 30,15</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>18,97; 29,46</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>23,94; 34,1</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>30,67; 43,49</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>30,03; 45,05</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1195,72 +1424,102 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>20,81%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,84%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>27,18%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>30,25%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>32,28%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
         <is>
           <t>32,8%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>33,42%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>35,95%</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>38,05%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>36,3%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>38,54%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>41,12%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
           <t>46,88%</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>48,56%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>25,28%</t>
         </is>
       </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>25,58%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>28,55%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>31,6%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>25,86%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>28,65%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>31,98%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>34,32%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
         <is>
           <t>38,59%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>40,45%</t>
         </is>
       </c>
     </row>
@@ -1273,90 +1532,1738 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,09; 19,53</t>
+          <t>15,42; 19,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,0; 19,92</t>
+          <t>15,34; 20,23</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>18,48; 23,49</t>
+          <t>18,36; 23,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>22,42; 27,93</t>
+          <t>22,75; 28,02</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,44; 33,68</t>
+          <t>24,13; 30,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,8; 35,56</t>
+          <t>27,09; 33,18</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>30,68; 36,07</t>
+          <t>29,37; 35,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,37; 38,49</t>
+          <t>30,47; 35,26</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>35,6; 40,58</t>
+          <t>31,24; 36,45</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>43,77; 50,24</t>
+          <t>33,96; 38,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,52; 26,95</t>
+          <t>36,18; 40,95</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>23,78; 27,44</t>
+          <t>38,11; 44,12</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>26,84; 30,25</t>
+          <t>43,97; 50,56</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>29,73; 33,49</t>
+          <t>45,37; 51,61</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>36,54; 41,0</t>
+          <t>23,52; 26,81</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>23,86; 27,64</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>27,01; 30,38</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>30,23; 34,06</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>32,16; 36,37</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>36,16; 40,78</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>38,18; 42,82</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolores musculares o de articulaciones con bastante o mucha frecuencia (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>318.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>332.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>434.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>396.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>360.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>458.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>493.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>379.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>601.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>660.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>288984</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>296950</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>321874</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>361567</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>375067</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>67181</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>72316</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>608193</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>652678</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>677656</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>685182</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>708685</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>111261</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>115606</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>897177</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>949628</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>999530</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>1046750</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>1083752</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>178442</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>187922</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>245432; 338671</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>246209; 351311</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>272842; 373262</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>308225; 425795</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>315336; 444224</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>59366; 75329</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>64260; 80405</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>551655; 669430</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>586211; 715946</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>616490; 741574</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>620888; 745307</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>632904; 783402</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>102904; 119715</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>107717; 123565</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>814294; 972970</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>865259; 1052660</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>920762; 1079162</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>966107; 1130589</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>987500; 1186398</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>165359; 190152</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>175962; 200545</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>77.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>122.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>340.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>402.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>356.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>231360</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>243991</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>312918</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>355411</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>386938</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>23989</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24297</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>446236</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>431361</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>466484</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>554917</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>643319</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>30909</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>30904</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>677596</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>675352</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>779402</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>910329</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>1030257</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>54898</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>55201</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>188984; 282664</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>193069; 324313</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>263287; 379217</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>296543; 423084</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>328547; 456075</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>19195; 28496</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19987; 29232</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>386840; 502959</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>378028; 494721</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>415086; 518335</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>498769; 612947</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>574029; 710309</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>26736; 35735</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>26369; 34986</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>607232; 758808</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>602320; 775118</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>698730; 857246</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>821927; 991029</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>941225; 1136865</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>47874; 61322</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>48903; 62337</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>79920</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>61782</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>74629</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>146592</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>171969</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>130557</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>137947</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>161127</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>151177</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>131218</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>210477</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>199729</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>235756</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>297768</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>303187</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>53342; 111502</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>36339; 92600</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>51724; 105719</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>110946; 196406</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>125852; 230087</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>103583; 160383</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>105147; 174136</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>131140; 190509</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>119512; 182225</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>95363; 169575</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>168823; 251704</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>157831; 245095</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>198021; 282040</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>255991; 362991</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>248934; 373394</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>245.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>208.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>290.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>347.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>317.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>525.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>452.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>604.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>661.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>524.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>512.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>539.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>770.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>660.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>894.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>1008.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>816.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>801.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>856.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>600263</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>602724</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>709421</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>863571</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>933974</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>91171</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>96613</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1184987</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1221985</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1305267</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1391276</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1483222</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>142170</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>146511</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1785250</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1824709</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>2014688</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>2254847</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>2417196</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>233340</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>243124</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>532079; 687191</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>528611; 697425</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>630731; 795039</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>782751; 964039</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>829181; 1054138</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>81654; 99988</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>87899; 106225</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1100797; 1273886</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1127797; 1315794</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1221105; 1392581</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1306024; 1478213</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1374646; 1591438</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>133336; 153325</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>136899; 155728</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1660754; 1893631</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1683988; 1950418</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1898990; 2136466</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>2131054; 2400985</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>2265220; 2561503</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>218636; 246543</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>229480; 257369</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
